--- a/output/Resultados/6.Descriptivos/1.descripcion_paneles.xlsx
+++ b/output/Resultados/6.Descriptivos/1.descripcion_paneles.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1192</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>3748</v>
+        <v>3762</v>
       </c>
     </row>
   </sheetData>
